--- a/biology/Botanique/Louis_XIV_(rose)/Louis_XIV_(rose).xlsx
+++ b/biology/Botanique/Louis_XIV_(rose)/Louis_XIV_(rose).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 'Louis XIV' est un cultivar de rosier obtenu en 1859 par Guillot fils. Il est issu d'un semis de 'Général Jacqueminot' (Roussel, 1853). Il rend hommage au Roi Soleil (1638-1715).
@@ -512,11 +524,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet hybride remontant présente de grandes fleurs doubles aux pétales enroulés à la façon des roses de Chine auxquelles il ressemble fort[1]. Elles sont d'un cramoisi à grenat très foncé[2] s'ouvrant sur de grandes étamines d'or, ce qui fait toute l'originalité de cette rose remarquable. Elle exhale un parfum puissant et agréable[3],[4]. Sa floraison est généreusement remontante.
-Le buisson ne s'élève qu'à 80 cm. Son feuillage est peu abondant. Sa zone de rusticité est de 7b à 10b[5] ; il craint donc les hivers rigoureux[6].
-Cette très belle rose demande des soins[3]. Elle nécessite une exposition ensoleillée. On peut notamment l'admirer à l'Europa-Rosarium de Sangerhausen[7] en Allemagne. Cette variété est bien présente dans les catalogues internationaux[8].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet hybride remontant présente de grandes fleurs doubles aux pétales enroulés à la façon des roses de Chine auxquelles il ressemble fort. Elles sont d'un cramoisi à grenat très foncé s'ouvrant sur de grandes étamines d'or, ce qui fait toute l'originalité de cette rose remarquable. Elle exhale un parfum puissant et agréable,. Sa floraison est généreusement remontante.
+Le buisson ne s'élève qu'à 80 cm. Son feuillage est peu abondant. Sa zone de rusticité est de 7b à 10b ; il craint donc les hivers rigoureux.
+Cette très belle rose demande des soins. Elle nécessite une exposition ensoleillée. On peut notamment l'admirer à l'Europa-Rosarium de Sangerhausen en Allemagne. Cette variété est bien présente dans les catalogues internationaux.
 </t>
         </is>
       </c>
